--- a/Exams/Exam-01/CheckList.xlsx
+++ b/Exams/Exam-01/CheckList.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Personal\Cursos\Backend Development\Repository\Exams\Exam-01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Tmp\BAck-Exam-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{171C6BBD-66DB-4BBF-A9E8-0BDF9875C31B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E872F84A-FEEB-49E7-B79F-78F57126E84F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="748" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -332,7 +332,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -370,6 +370,9 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -662,10 +665,10 @@
   <dimension ref="A1:D56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B42" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D56" sqref="D56"/>
+      <selection pane="bottomRight" activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -711,7 +714,7 @@
         <v>0.5</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="6">
+      <c r="D4" s="15">
         <v>0.5</v>
       </c>
     </row>
@@ -734,7 +737,7 @@
         <v>0.1</v>
       </c>
       <c r="C6" s="6"/>
-      <c r="D6" s="6">
+      <c r="D6" s="15">
         <v>0.1</v>
       </c>
     </row>
@@ -746,7 +749,7 @@
         <v>0.1</v>
       </c>
       <c r="C7" s="6"/>
-      <c r="D7" s="6">
+      <c r="D7" s="15">
         <v>0.1</v>
       </c>
     </row>
@@ -758,7 +761,7 @@
         <v>0.1</v>
       </c>
       <c r="C8" s="6"/>
-      <c r="D8" s="6">
+      <c r="D8" s="15">
         <v>0.1</v>
       </c>
     </row>
@@ -770,7 +773,7 @@
         <v>0.1</v>
       </c>
       <c r="C9" s="6"/>
-      <c r="D9" s="6">
+      <c r="D9" s="15">
         <v>0.1</v>
       </c>
     </row>
@@ -782,7 +785,7 @@
         <v>0.1</v>
       </c>
       <c r="C10" s="6"/>
-      <c r="D10" s="6">
+      <c r="D10" s="15">
         <v>0.1</v>
       </c>
     </row>
@@ -794,7 +797,7 @@
         <v>0.1</v>
       </c>
       <c r="C11" s="6"/>
-      <c r="D11" s="6">
+      <c r="D11" s="15">
         <v>0.1</v>
       </c>
     </row>
@@ -806,7 +809,7 @@
         <v>0.1</v>
       </c>
       <c r="C12" s="6"/>
-      <c r="D12" s="6">
+      <c r="D12" s="15">
         <v>0.1</v>
       </c>
     </row>
@@ -818,7 +821,7 @@
         <v>0.1</v>
       </c>
       <c r="C13" s="6"/>
-      <c r="D13" s="6">
+      <c r="D13" s="15">
         <v>0.1</v>
       </c>
     </row>
@@ -830,7 +833,7 @@
         <v>0.1</v>
       </c>
       <c r="C14" s="6"/>
-      <c r="D14" s="6">
+      <c r="D14" s="15">
         <v>0.1</v>
       </c>
     </row>
@@ -842,7 +845,7 @@
         <v>0.1</v>
       </c>
       <c r="C15" s="6"/>
-      <c r="D15" s="6">
+      <c r="D15" s="15">
         <v>0.1</v>
       </c>
     </row>
@@ -854,7 +857,7 @@
         <v>0.1</v>
       </c>
       <c r="C16" s="6"/>
-      <c r="D16" s="6">
+      <c r="D16" s="15">
         <v>0.1</v>
       </c>
     </row>
@@ -866,7 +869,7 @@
         <v>0.1</v>
       </c>
       <c r="C17" s="6"/>
-      <c r="D17" s="6">
+      <c r="D17" s="15">
         <v>0.1</v>
       </c>
     </row>
@@ -878,7 +881,7 @@
         <v>0.1</v>
       </c>
       <c r="C18" s="6"/>
-      <c r="D18" s="6">
+      <c r="D18" s="15">
         <v>0.1</v>
       </c>
     </row>
@@ -890,7 +893,7 @@
         <v>0.1</v>
       </c>
       <c r="C19" s="6"/>
-      <c r="D19" s="6">
+      <c r="D19" s="15">
         <v>0.1</v>
       </c>
     </row>
@@ -902,7 +905,7 @@
         <v>0.1</v>
       </c>
       <c r="C20" s="6"/>
-      <c r="D20" s="6">
+      <c r="D20" s="15">
         <v>0.1</v>
       </c>
     </row>
@@ -933,7 +936,7 @@
         <v>0.1</v>
       </c>
       <c r="C23" s="6"/>
-      <c r="D23" s="6">
+      <c r="D23" s="15">
         <v>0.1</v>
       </c>
     </row>
@@ -945,7 +948,7 @@
         <v>0.1</v>
       </c>
       <c r="C24" s="6"/>
-      <c r="D24" s="6">
+      <c r="D24" s="15">
         <v>0.1</v>
       </c>
     </row>
@@ -957,7 +960,7 @@
         <v>0.1</v>
       </c>
       <c r="C25" s="6"/>
-      <c r="D25" s="6">
+      <c r="D25" s="15">
         <v>0.1</v>
       </c>
     </row>
@@ -969,7 +972,7 @@
         <v>0.1</v>
       </c>
       <c r="C26" s="6"/>
-      <c r="D26" s="6">
+      <c r="D26" s="15">
         <v>0.1</v>
       </c>
     </row>
@@ -981,7 +984,7 @@
         <v>0.1</v>
       </c>
       <c r="C27" s="6"/>
-      <c r="D27" s="6">
+      <c r="D27" s="15">
         <v>0.1</v>
       </c>
     </row>
@@ -993,7 +996,7 @@
         <v>0.1</v>
       </c>
       <c r="C28" s="6"/>
-      <c r="D28" s="6">
+      <c r="D28" s="15">
         <v>0.1</v>
       </c>
     </row>
@@ -1005,7 +1008,7 @@
         <v>0.1</v>
       </c>
       <c r="C29" s="6"/>
-      <c r="D29" s="6">
+      <c r="D29" s="15">
         <v>0.1</v>
       </c>
     </row>
@@ -1017,7 +1020,7 @@
         <v>0.1</v>
       </c>
       <c r="C30" s="6"/>
-      <c r="D30" s="6">
+      <c r="D30" s="15">
         <v>0.1</v>
       </c>
     </row>
@@ -1029,7 +1032,7 @@
         <v>0.1</v>
       </c>
       <c r="C31" s="6"/>
-      <c r="D31" s="6">
+      <c r="D31" s="15">
         <v>0.1</v>
       </c>
     </row>
@@ -1041,7 +1044,7 @@
         <v>0.1</v>
       </c>
       <c r="C32" s="6"/>
-      <c r="D32" s="6">
+      <c r="D32" s="15">
         <v>0.1</v>
       </c>
     </row>
@@ -1053,7 +1056,7 @@
         <v>0.1</v>
       </c>
       <c r="C33" s="6"/>
-      <c r="D33" s="6">
+      <c r="D33" s="15">
         <v>0.1</v>
       </c>
     </row>
@@ -1073,7 +1076,7 @@
         <v>0.1</v>
       </c>
       <c r="C35" s="6"/>
-      <c r="D35" s="6">
+      <c r="D35" s="15">
         <v>0.1</v>
       </c>
     </row>
@@ -1085,7 +1088,7 @@
         <v>0.1</v>
       </c>
       <c r="C36" s="6"/>
-      <c r="D36" s="6">
+      <c r="D36" s="15">
         <v>0.1</v>
       </c>
     </row>
@@ -1097,7 +1100,7 @@
         <v>0.1</v>
       </c>
       <c r="C37" s="6"/>
-      <c r="D37" s="6">
+      <c r="D37" s="15">
         <v>0.1</v>
       </c>
     </row>
@@ -1109,7 +1112,7 @@
         <v>0.1</v>
       </c>
       <c r="C38" s="6"/>
-      <c r="D38" s="6">
+      <c r="D38" s="15">
         <v>0.1</v>
       </c>
     </row>
@@ -1132,7 +1135,7 @@
         <v>0.1</v>
       </c>
       <c r="C40" s="6"/>
-      <c r="D40" s="6">
+      <c r="D40" s="15">
         <v>0.1</v>
       </c>
     </row>
@@ -1144,7 +1147,7 @@
         <v>0.1</v>
       </c>
       <c r="C41" s="6"/>
-      <c r="D41" s="6">
+      <c r="D41" s="15">
         <v>0.1</v>
       </c>
     </row>
@@ -1156,7 +1159,7 @@
         <v>0.1</v>
       </c>
       <c r="C42" s="6"/>
-      <c r="D42" s="6">
+      <c r="D42" s="15">
         <v>0.1</v>
       </c>
     </row>
@@ -1168,7 +1171,7 @@
         <v>0.1</v>
       </c>
       <c r="C43" s="6"/>
-      <c r="D43" s="6">
+      <c r="D43" s="15">
         <v>0.1</v>
       </c>
     </row>
@@ -1180,7 +1183,7 @@
         <v>0.1</v>
       </c>
       <c r="C44" s="6"/>
-      <c r="D44" s="6">
+      <c r="D44" s="15">
         <v>0.1</v>
       </c>
     </row>
@@ -1203,7 +1206,7 @@
         <v>0.1</v>
       </c>
       <c r="C46" s="6"/>
-      <c r="D46" s="6">
+      <c r="D46" s="15">
         <v>0.1</v>
       </c>
     </row>
@@ -1215,7 +1218,7 @@
         <v>0.1</v>
       </c>
       <c r="C47" s="6"/>
-      <c r="D47" s="6">
+      <c r="D47" s="15">
         <v>0.1</v>
       </c>
     </row>
@@ -1227,7 +1230,7 @@
         <v>0.1</v>
       </c>
       <c r="C48" s="6"/>
-      <c r="D48" s="6">
+      <c r="D48" s="15">
         <v>0.1</v>
       </c>
     </row>
@@ -1239,7 +1242,7 @@
         <v>0.1</v>
       </c>
       <c r="C49" s="6"/>
-      <c r="D49" s="6">
+      <c r="D49" s="15">
         <v>0.1</v>
       </c>
     </row>
@@ -1251,7 +1254,7 @@
         <v>0.1</v>
       </c>
       <c r="C50" s="6"/>
-      <c r="D50" s="6">
+      <c r="D50" s="15">
         <v>0.1</v>
       </c>
     </row>
@@ -1263,7 +1266,7 @@
         <v>0.1</v>
       </c>
       <c r="C51" s="6"/>
-      <c r="D51" s="6">
+      <c r="D51" s="15">
         <v>0.1</v>
       </c>
     </row>
@@ -1275,7 +1278,7 @@
         <v>0.1</v>
       </c>
       <c r="C52" s="6"/>
-      <c r="D52" s="6">
+      <c r="D52" s="15">
         <v>0.1</v>
       </c>
     </row>
@@ -1287,7 +1290,7 @@
         <v>0.1</v>
       </c>
       <c r="C53" s="6"/>
-      <c r="D53" s="6">
+      <c r="D53" s="15">
         <v>0.1</v>
       </c>
     </row>
@@ -1299,7 +1302,7 @@
         <v>0.1</v>
       </c>
       <c r="C54" s="6"/>
-      <c r="D54" s="6">
+      <c r="D54" s="15">
         <v>0.1</v>
       </c>
     </row>
@@ -1311,7 +1314,7 @@
         <v>0.1</v>
       </c>
       <c r="C55" s="6"/>
-      <c r="D55" s="6">
+      <c r="D55" s="15">
         <v>0.1</v>
       </c>
     </row>

--- a/Exams/Exam-01/CheckList.xlsx
+++ b/Exams/Exam-01/CheckList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Personal\Cursos\Backend Development\Repository\Exams\Exam-01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{171C6BBD-66DB-4BBF-A9E8-0BDF9875C31B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9021A71-5782-4817-81D0-919D2A86F070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="748" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Categoria/Detalle</t>
   </si>
@@ -199,6 +199,21 @@
   </si>
   <si>
     <t>Calificacion</t>
+  </si>
+  <si>
+    <t>5 Wwarnings</t>
+  </si>
+  <si>
+    <t>No valida 1 o 2</t>
+  </si>
+  <si>
+    <t>No valida Espacios</t>
+  </si>
+  <si>
+    <t>No inicia con el valor</t>
+  </si>
+  <si>
+    <t>El Sobregiro esta invertido</t>
   </si>
 </sst>
 </file>
@@ -332,7 +347,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -370,6 +385,9 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -659,13 +677,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B42" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D56" sqref="D56"/>
+      <selection pane="bottomRight" activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -676,10 +694,10 @@
     <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -693,7 +711,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -703,7 +721,7 @@
       </c>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
@@ -711,11 +729,14 @@
         <v>0.5</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="6">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D4" s="15">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>11</v>
       </c>
@@ -726,7 +747,7 @@
       </c>
       <c r="D5" s="8"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -734,11 +755,11 @@
         <v>0.1</v>
       </c>
       <c r="C6" s="6"/>
-      <c r="D6" s="6">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D6" s="15">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -746,11 +767,11 @@
         <v>0.1</v>
       </c>
       <c r="C7" s="6"/>
-      <c r="D7" s="6">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D7" s="15">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -758,11 +779,11 @@
         <v>0.1</v>
       </c>
       <c r="C8" s="6"/>
-      <c r="D8" s="6">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D8" s="15">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
@@ -770,11 +791,11 @@
         <v>0.1</v>
       </c>
       <c r="C9" s="6"/>
-      <c r="D9" s="6">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D9" s="15">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>55</v>
       </c>
@@ -782,11 +803,14 @@
         <v>0.1</v>
       </c>
       <c r="C10" s="6"/>
-      <c r="D10" s="6">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D10" s="15">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>51</v>
       </c>
@@ -794,11 +818,11 @@
         <v>0.1</v>
       </c>
       <c r="C11" s="6"/>
-      <c r="D11" s="6">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D11" s="15">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>52</v>
       </c>
@@ -806,11 +830,14 @@
         <v>0.1</v>
       </c>
       <c r="C12" s="6"/>
-      <c r="D12" s="6">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D12" s="15">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>16</v>
       </c>
@@ -818,11 +845,11 @@
         <v>0.1</v>
       </c>
       <c r="C13" s="6"/>
-      <c r="D13" s="6">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D13" s="15">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>48</v>
       </c>
@@ -830,11 +857,11 @@
         <v>0.1</v>
       </c>
       <c r="C14" s="6"/>
-      <c r="D14" s="6">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D14" s="15">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>17</v>
       </c>
@@ -842,11 +869,11 @@
         <v>0.1</v>
       </c>
       <c r="C15" s="6"/>
-      <c r="D15" s="6">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D15" s="15">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>18</v>
       </c>
@@ -854,11 +881,11 @@
         <v>0.1</v>
       </c>
       <c r="C16" s="6"/>
-      <c r="D16" s="6">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D16" s="15">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>19</v>
       </c>
@@ -866,11 +893,11 @@
         <v>0.1</v>
       </c>
       <c r="C17" s="6"/>
-      <c r="D17" s="6">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D17" s="15">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>20</v>
       </c>
@@ -878,11 +905,14 @@
         <v>0.1</v>
       </c>
       <c r="C18" s="6"/>
-      <c r="D18" s="6">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D18" s="15">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>49</v>
       </c>
@@ -890,11 +920,14 @@
         <v>0.1</v>
       </c>
       <c r="C19" s="6"/>
-      <c r="D19" s="6">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D19" s="15">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>21</v>
       </c>
@@ -902,11 +935,11 @@
         <v>0.1</v>
       </c>
       <c r="C20" s="6"/>
-      <c r="D20" s="6">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D20" s="15">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>12</v>
       </c>
@@ -917,7 +950,7 @@
       </c>
       <c r="D21" s="8"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>13</v>
       </c>
@@ -925,7 +958,7 @@
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
         <v>22</v>
       </c>
@@ -933,11 +966,11 @@
         <v>0.1</v>
       </c>
       <c r="C23" s="6"/>
-      <c r="D23" s="6">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D23" s="15">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
         <v>23</v>
       </c>
@@ -945,11 +978,11 @@
         <v>0.1</v>
       </c>
       <c r="C24" s="6"/>
-      <c r="D24" s="6">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D24" s="15">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
         <v>8</v>
       </c>
@@ -957,11 +990,11 @@
         <v>0.1</v>
       </c>
       <c r="C25" s="6"/>
-      <c r="D25" s="6">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D25" s="15">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
         <v>24</v>
       </c>
@@ -969,11 +1002,11 @@
         <v>0.1</v>
       </c>
       <c r="C26" s="6"/>
-      <c r="D26" s="6">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D26" s="15">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
         <v>26</v>
       </c>
@@ -981,11 +1014,11 @@
         <v>0.1</v>
       </c>
       <c r="C27" s="6"/>
-      <c r="D27" s="6">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D27" s="15">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
         <v>25</v>
       </c>
@@ -993,11 +1026,11 @@
         <v>0.1</v>
       </c>
       <c r="C28" s="6"/>
-      <c r="D28" s="6">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D28" s="15">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
         <v>27</v>
       </c>
@@ -1005,11 +1038,11 @@
         <v>0.1</v>
       </c>
       <c r="C29" s="6"/>
-      <c r="D29" s="6">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D29" s="15">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
         <v>28</v>
       </c>
@@ -1017,11 +1050,11 @@
         <v>0.1</v>
       </c>
       <c r="C30" s="6"/>
-      <c r="D30" s="6">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D30" s="15">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
         <v>29</v>
       </c>
@@ -1029,11 +1062,11 @@
         <v>0.1</v>
       </c>
       <c r="C31" s="6"/>
-      <c r="D31" s="6">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D31" s="15">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
         <v>56</v>
       </c>
@@ -1041,7 +1074,7 @@
         <v>0.1</v>
       </c>
       <c r="C32" s="6"/>
-      <c r="D32" s="6">
+      <c r="D32" s="15">
         <v>0.1</v>
       </c>
     </row>
@@ -1053,7 +1086,7 @@
         <v>0.1</v>
       </c>
       <c r="C33" s="6"/>
-      <c r="D33" s="6">
+      <c r="D33" s="15">
         <v>0.1</v>
       </c>
     </row>
@@ -1073,8 +1106,8 @@
         <v>0.1</v>
       </c>
       <c r="C35" s="6"/>
-      <c r="D35" s="6">
-        <v>0.1</v>
+      <c r="D35" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -1085,8 +1118,8 @@
         <v>0.1</v>
       </c>
       <c r="C36" s="6"/>
-      <c r="D36" s="6">
-        <v>0.1</v>
+      <c r="D36" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -1097,7 +1130,7 @@
         <v>0.1</v>
       </c>
       <c r="C37" s="6"/>
-      <c r="D37" s="6">
+      <c r="D37" s="15">
         <v>0.1</v>
       </c>
     </row>
@@ -1109,7 +1142,7 @@
         <v>0.1</v>
       </c>
       <c r="C38" s="6"/>
-      <c r="D38" s="6">
+      <c r="D38" s="15">
         <v>0.1</v>
       </c>
     </row>
@@ -1132,8 +1165,8 @@
         <v>0.1</v>
       </c>
       <c r="C40" s="6"/>
-      <c r="D40" s="6">
-        <v>0.1</v>
+      <c r="D40" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -1144,7 +1177,7 @@
         <v>0.1</v>
       </c>
       <c r="C41" s="6"/>
-      <c r="D41" s="6">
+      <c r="D41" s="15">
         <v>0.1</v>
       </c>
     </row>
@@ -1156,7 +1189,7 @@
         <v>0.1</v>
       </c>
       <c r="C42" s="6"/>
-      <c r="D42" s="6">
+      <c r="D42" s="15">
         <v>0.1</v>
       </c>
     </row>
@@ -1168,7 +1201,7 @@
         <v>0.1</v>
       </c>
       <c r="C43" s="6"/>
-      <c r="D43" s="6">
+      <c r="D43" s="15">
         <v>0.1</v>
       </c>
     </row>
@@ -1180,7 +1213,7 @@
         <v>0.1</v>
       </c>
       <c r="C44" s="6"/>
-      <c r="D44" s="6">
+      <c r="D44" s="15">
         <v>0.1</v>
       </c>
     </row>
@@ -1203,7 +1236,7 @@
         <v>0.1</v>
       </c>
       <c r="C46" s="6"/>
-      <c r="D46" s="6">
+      <c r="D46" s="15">
         <v>0.1</v>
       </c>
     </row>
@@ -1215,7 +1248,7 @@
         <v>0.1</v>
       </c>
       <c r="C47" s="6"/>
-      <c r="D47" s="6">
+      <c r="D47" s="15">
         <v>0.1</v>
       </c>
     </row>
@@ -1227,8 +1260,8 @@
         <v>0.1</v>
       </c>
       <c r="C48" s="6"/>
-      <c r="D48" s="6">
-        <v>0.1</v>
+      <c r="D48" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -1239,7 +1272,7 @@
         <v>0.1</v>
       </c>
       <c r="C49" s="6"/>
-      <c r="D49" s="6">
+      <c r="D49" s="15">
         <v>0.1</v>
       </c>
     </row>
@@ -1251,8 +1284,8 @@
         <v>0.1</v>
       </c>
       <c r="C50" s="6"/>
-      <c r="D50" s="6">
-        <v>0.1</v>
+      <c r="D50" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -1263,7 +1296,7 @@
         <v>0.1</v>
       </c>
       <c r="C51" s="6"/>
-      <c r="D51" s="6">
+      <c r="D51" s="15">
         <v>0.1</v>
       </c>
     </row>
@@ -1275,8 +1308,8 @@
         <v>0.1</v>
       </c>
       <c r="C52" s="6"/>
-      <c r="D52" s="6">
-        <v>0.1</v>
+      <c r="D52" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -1287,7 +1320,7 @@
         <v>0.1</v>
       </c>
       <c r="C53" s="6"/>
-      <c r="D53" s="6">
+      <c r="D53" s="15">
         <v>0.1</v>
       </c>
     </row>
@@ -1299,8 +1332,8 @@
         <v>0.1</v>
       </c>
       <c r="C54" s="6"/>
-      <c r="D54" s="6">
-        <v>0.1</v>
+      <c r="D54" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -1311,7 +1344,7 @@
         <v>0.1</v>
       </c>
       <c r="C55" s="6"/>
-      <c r="D55" s="6">
+      <c r="D55" s="15">
         <v>0.1</v>
       </c>
     </row>
@@ -1326,7 +1359,7 @@
       </c>
       <c r="D56" s="14">
         <f t="shared" ref="D56" si="0">SUM(D3:D55)</f>
-        <v>4.9999999999999982</v>
+        <v>3.4000000000000017</v>
       </c>
     </row>
   </sheetData>

--- a/Exams/Exam-01/CheckList.xlsx
+++ b/Exams/Exam-01/CheckList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Personal\Cursos\Backend Development\Repository\Exams\Exam-01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{171C6BBD-66DB-4BBF-A9E8-0BDF9875C31B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB656EA4-AFFE-4275-B6AE-69ED6461AACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="748" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>Categoria/Detalle</t>
   </si>
@@ -199,6 +199,12 @@
   </si>
   <si>
     <t>Calificacion</t>
+  </si>
+  <si>
+    <t>. Revienta</t>
+  </si>
+  <si>
+    <t>Falla 2222222222</t>
   </si>
 </sst>
 </file>
@@ -332,7 +338,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -370,6 +376,9 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -659,13 +668,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B42" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="D48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D56" sqref="D56"/>
+      <selection pane="bottomRight" activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -676,10 +685,10 @@
     <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -693,7 +702,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -703,7 +712,7 @@
       </c>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
@@ -711,11 +720,11 @@
         <v>0.5</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="6">
+      <c r="D4" s="15">
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>11</v>
       </c>
@@ -726,7 +735,7 @@
       </c>
       <c r="D5" s="8"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -734,11 +743,11 @@
         <v>0.1</v>
       </c>
       <c r="C6" s="6"/>
-      <c r="D6" s="6">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D6" s="15">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -746,11 +755,11 @@
         <v>0.1</v>
       </c>
       <c r="C7" s="6"/>
-      <c r="D7" s="6">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D7" s="15">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -758,11 +767,11 @@
         <v>0.1</v>
       </c>
       <c r="C8" s="6"/>
-      <c r="D8" s="6">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D8" s="15">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
@@ -770,11 +779,11 @@
         <v>0.1</v>
       </c>
       <c r="C9" s="6"/>
-      <c r="D9" s="6">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D9" s="15">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>55</v>
       </c>
@@ -782,11 +791,14 @@
         <v>0.1</v>
       </c>
       <c r="C10" s="6"/>
-      <c r="D10" s="6">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D10" s="15">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>51</v>
       </c>
@@ -794,11 +806,14 @@
         <v>0.1</v>
       </c>
       <c r="C11" s="6"/>
-      <c r="D11" s="6">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D11" s="15">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>52</v>
       </c>
@@ -806,11 +821,11 @@
         <v>0.1</v>
       </c>
       <c r="C12" s="6"/>
-      <c r="D12" s="6">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D12" s="15">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>16</v>
       </c>
@@ -818,11 +833,11 @@
         <v>0.1</v>
       </c>
       <c r="C13" s="6"/>
-      <c r="D13" s="6">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D13" s="15">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>48</v>
       </c>
@@ -830,11 +845,11 @@
         <v>0.1</v>
       </c>
       <c r="C14" s="6"/>
-      <c r="D14" s="6">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D14" s="15">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>17</v>
       </c>
@@ -842,11 +857,11 @@
         <v>0.1</v>
       </c>
       <c r="C15" s="6"/>
-      <c r="D15" s="6">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D15" s="15">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>18</v>
       </c>
@@ -854,7 +869,7 @@
         <v>0.1</v>
       </c>
       <c r="C16" s="6"/>
-      <c r="D16" s="6">
+      <c r="D16" s="15">
         <v>0.1</v>
       </c>
     </row>
@@ -866,7 +881,7 @@
         <v>0.1</v>
       </c>
       <c r="C17" s="6"/>
-      <c r="D17" s="6">
+      <c r="D17" s="15">
         <v>0.1</v>
       </c>
     </row>
@@ -878,7 +893,7 @@
         <v>0.1</v>
       </c>
       <c r="C18" s="6"/>
-      <c r="D18" s="6">
+      <c r="D18" s="15">
         <v>0.1</v>
       </c>
     </row>
@@ -890,8 +905,8 @@
         <v>0.1</v>
       </c>
       <c r="C19" s="6"/>
-      <c r="D19" s="6">
-        <v>0.1</v>
+      <c r="D19" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -902,7 +917,7 @@
         <v>0.1</v>
       </c>
       <c r="C20" s="6"/>
-      <c r="D20" s="6">
+      <c r="D20" s="15">
         <v>0.1</v>
       </c>
     </row>
@@ -933,7 +948,7 @@
         <v>0.1</v>
       </c>
       <c r="C23" s="6"/>
-      <c r="D23" s="6">
+      <c r="D23" s="15">
         <v>0.1</v>
       </c>
     </row>
@@ -945,8 +960,8 @@
         <v>0.1</v>
       </c>
       <c r="C24" s="6"/>
-      <c r="D24" s="6">
-        <v>0.1</v>
+      <c r="D24" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -957,7 +972,7 @@
         <v>0.1</v>
       </c>
       <c r="C25" s="6"/>
-      <c r="D25" s="6">
+      <c r="D25" s="15">
         <v>0.1</v>
       </c>
     </row>
@@ -969,7 +984,7 @@
         <v>0.1</v>
       </c>
       <c r="C26" s="6"/>
-      <c r="D26" s="6">
+      <c r="D26" s="15">
         <v>0.1</v>
       </c>
     </row>
@@ -981,7 +996,7 @@
         <v>0.1</v>
       </c>
       <c r="C27" s="6"/>
-      <c r="D27" s="6">
+      <c r="D27" s="15">
         <v>0.1</v>
       </c>
     </row>
@@ -993,7 +1008,7 @@
         <v>0.1</v>
       </c>
       <c r="C28" s="6"/>
-      <c r="D28" s="6">
+      <c r="D28" s="15">
         <v>0.1</v>
       </c>
     </row>
@@ -1005,7 +1020,7 @@
         <v>0.1</v>
       </c>
       <c r="C29" s="6"/>
-      <c r="D29" s="6">
+      <c r="D29" s="15">
         <v>0.1</v>
       </c>
     </row>
@@ -1017,7 +1032,7 @@
         <v>0.1</v>
       </c>
       <c r="C30" s="6"/>
-      <c r="D30" s="6">
+      <c r="D30" s="15">
         <v>0.1</v>
       </c>
     </row>
@@ -1029,7 +1044,7 @@
         <v>0.1</v>
       </c>
       <c r="C31" s="6"/>
-      <c r="D31" s="6">
+      <c r="D31" s="15">
         <v>0.1</v>
       </c>
     </row>
@@ -1041,7 +1056,7 @@
         <v>0.1</v>
       </c>
       <c r="C32" s="6"/>
-      <c r="D32" s="6">
+      <c r="D32" s="15">
         <v>0.1</v>
       </c>
     </row>
@@ -1053,8 +1068,8 @@
         <v>0.1</v>
       </c>
       <c r="C33" s="6"/>
-      <c r="D33" s="6">
-        <v>0.1</v>
+      <c r="D33" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -1073,8 +1088,8 @@
         <v>0.1</v>
       </c>
       <c r="C35" s="6"/>
-      <c r="D35" s="6">
-        <v>0.1</v>
+      <c r="D35" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -1085,7 +1100,7 @@
         <v>0.1</v>
       </c>
       <c r="C36" s="6"/>
-      <c r="D36" s="6">
+      <c r="D36" s="15">
         <v>0.1</v>
       </c>
     </row>
@@ -1097,7 +1112,7 @@
         <v>0.1</v>
       </c>
       <c r="C37" s="6"/>
-      <c r="D37" s="6">
+      <c r="D37" s="15">
         <v>0.1</v>
       </c>
     </row>
@@ -1109,7 +1124,7 @@
         <v>0.1</v>
       </c>
       <c r="C38" s="6"/>
-      <c r="D38" s="6">
+      <c r="D38" s="15">
         <v>0.1</v>
       </c>
     </row>
@@ -1132,8 +1147,8 @@
         <v>0.1</v>
       </c>
       <c r="C40" s="6"/>
-      <c r="D40" s="6">
-        <v>0.1</v>
+      <c r="D40" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -1144,7 +1159,7 @@
         <v>0.1</v>
       </c>
       <c r="C41" s="6"/>
-      <c r="D41" s="6">
+      <c r="D41" s="15">
         <v>0.1</v>
       </c>
     </row>
@@ -1156,7 +1171,7 @@
         <v>0.1</v>
       </c>
       <c r="C42" s="6"/>
-      <c r="D42" s="6">
+      <c r="D42" s="15">
         <v>0.1</v>
       </c>
     </row>
@@ -1168,7 +1183,7 @@
         <v>0.1</v>
       </c>
       <c r="C43" s="6"/>
-      <c r="D43" s="6">
+      <c r="D43" s="15">
         <v>0.1</v>
       </c>
     </row>
@@ -1180,7 +1195,7 @@
         <v>0.1</v>
       </c>
       <c r="C44" s="6"/>
-      <c r="D44" s="6">
+      <c r="D44" s="15">
         <v>0.1</v>
       </c>
     </row>
@@ -1203,7 +1218,7 @@
         <v>0.1</v>
       </c>
       <c r="C46" s="6"/>
-      <c r="D46" s="6">
+      <c r="D46" s="15">
         <v>0.1</v>
       </c>
     </row>
@@ -1215,7 +1230,7 @@
         <v>0.1</v>
       </c>
       <c r="C47" s="6"/>
-      <c r="D47" s="6">
+      <c r="D47" s="15">
         <v>0.1</v>
       </c>
     </row>
@@ -1227,7 +1242,7 @@
         <v>0.1</v>
       </c>
       <c r="C48" s="6"/>
-      <c r="D48" s="6">
+      <c r="D48" s="15">
         <v>0.1</v>
       </c>
     </row>
@@ -1239,7 +1254,7 @@
         <v>0.1</v>
       </c>
       <c r="C49" s="6"/>
-      <c r="D49" s="6">
+      <c r="D49" s="15">
         <v>0.1</v>
       </c>
     </row>
@@ -1251,7 +1266,7 @@
         <v>0.1</v>
       </c>
       <c r="C50" s="6"/>
-      <c r="D50" s="6">
+      <c r="D50" s="15">
         <v>0.1</v>
       </c>
     </row>
@@ -1263,7 +1278,7 @@
         <v>0.1</v>
       </c>
       <c r="C51" s="6"/>
-      <c r="D51" s="6">
+      <c r="D51" s="15">
         <v>0.1</v>
       </c>
     </row>
@@ -1275,7 +1290,7 @@
         <v>0.1</v>
       </c>
       <c r="C52" s="6"/>
-      <c r="D52" s="6">
+      <c r="D52" s="15">
         <v>0.1</v>
       </c>
     </row>
@@ -1287,7 +1302,7 @@
         <v>0.1</v>
       </c>
       <c r="C53" s="6"/>
-      <c r="D53" s="6">
+      <c r="D53" s="15">
         <v>0.1</v>
       </c>
     </row>
@@ -1299,8 +1314,8 @@
         <v>0.1</v>
       </c>
       <c r="C54" s="6"/>
-      <c r="D54" s="6">
-        <v>0.1</v>
+      <c r="D54" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -1311,8 +1326,8 @@
         <v>0.1</v>
       </c>
       <c r="C55" s="6"/>
-      <c r="D55" s="6">
-        <v>0.1</v>
+      <c r="D55" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -1326,7 +1341,7 @@
       </c>
       <c r="D56" s="14">
         <f t="shared" ref="D56" si="0">SUM(D3:D55)</f>
-        <v>4.9999999999999982</v>
+        <v>4.1000000000000014</v>
       </c>
     </row>
   </sheetData>

--- a/Exams/Exam-01/CheckList.xlsx
+++ b/Exams/Exam-01/CheckList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Personal\Cursos\Backend Development\Repository\Exams\Exam-01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{171C6BBD-66DB-4BBF-A9E8-0BDF9875C31B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD8DC076-81EE-4B9B-AF7E-47FD98B553A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="748" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Categoria/Detalle</t>
   </si>
@@ -199,6 +199,9 @@
   </si>
   <si>
     <t>Calificacion</t>
+  </si>
+  <si>
+    <t>17 Warning</t>
   </si>
 </sst>
 </file>
@@ -332,7 +335,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -370,6 +373,9 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -659,13 +665,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B42" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="D48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D56" sqref="D56"/>
+      <selection pane="bottomRight" activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -676,10 +682,10 @@
     <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -693,7 +699,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -703,7 +709,7 @@
       </c>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
@@ -711,11 +717,14 @@
         <v>0.5</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="6">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D4" s="15">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>11</v>
       </c>
@@ -726,7 +735,7 @@
       </c>
       <c r="D5" s="8"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -734,11 +743,11 @@
         <v>0.1</v>
       </c>
       <c r="C6" s="6"/>
-      <c r="D6" s="6">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D6" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -746,11 +755,11 @@
         <v>0.1</v>
       </c>
       <c r="C7" s="6"/>
-      <c r="D7" s="6">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D7" s="15">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -758,11 +767,11 @@
         <v>0.1</v>
       </c>
       <c r="C8" s="6"/>
-      <c r="D8" s="6">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D8" s="15">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
@@ -770,11 +779,11 @@
         <v>0.1</v>
       </c>
       <c r="C9" s="6"/>
-      <c r="D9" s="6">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D9" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>55</v>
       </c>
@@ -782,11 +791,11 @@
         <v>0.1</v>
       </c>
       <c r="C10" s="6"/>
-      <c r="D10" s="6">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D10" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>51</v>
       </c>
@@ -794,11 +803,11 @@
         <v>0.1</v>
       </c>
       <c r="C11" s="6"/>
-      <c r="D11" s="6">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D11" s="15">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>52</v>
       </c>
@@ -806,11 +815,11 @@
         <v>0.1</v>
       </c>
       <c r="C12" s="6"/>
-      <c r="D12" s="6">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D12" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>16</v>
       </c>
@@ -818,11 +827,11 @@
         <v>0.1</v>
       </c>
       <c r="C13" s="6"/>
-      <c r="D13" s="6">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D13" s="15">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>48</v>
       </c>
@@ -830,11 +839,11 @@
         <v>0.1</v>
       </c>
       <c r="C14" s="6"/>
-      <c r="D14" s="6">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D14" s="15">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>17</v>
       </c>
@@ -842,11 +851,11 @@
         <v>0.1</v>
       </c>
       <c r="C15" s="6"/>
-      <c r="D15" s="6">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D15" s="15">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>18</v>
       </c>
@@ -854,7 +863,7 @@
         <v>0.1</v>
       </c>
       <c r="C16" s="6"/>
-      <c r="D16" s="6">
+      <c r="D16" s="15">
         <v>0.1</v>
       </c>
     </row>
@@ -866,7 +875,7 @@
         <v>0.1</v>
       </c>
       <c r="C17" s="6"/>
-      <c r="D17" s="6">
+      <c r="D17" s="15">
         <v>0.1</v>
       </c>
     </row>
@@ -878,7 +887,7 @@
         <v>0.1</v>
       </c>
       <c r="C18" s="6"/>
-      <c r="D18" s="6">
+      <c r="D18" s="15">
         <v>0.1</v>
       </c>
     </row>
@@ -890,8 +899,8 @@
         <v>0.1</v>
       </c>
       <c r="C19" s="6"/>
-      <c r="D19" s="6">
-        <v>0.1</v>
+      <c r="D19" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -902,7 +911,7 @@
         <v>0.1</v>
       </c>
       <c r="C20" s="6"/>
-      <c r="D20" s="6">
+      <c r="D20" s="15">
         <v>0.1</v>
       </c>
     </row>
@@ -933,7 +942,7 @@
         <v>0.1</v>
       </c>
       <c r="C23" s="6"/>
-      <c r="D23" s="6">
+      <c r="D23" s="15">
         <v>0.1</v>
       </c>
     </row>
@@ -945,7 +954,7 @@
         <v>0.1</v>
       </c>
       <c r="C24" s="6"/>
-      <c r="D24" s="6">
+      <c r="D24" s="15">
         <v>0.1</v>
       </c>
     </row>
@@ -957,7 +966,7 @@
         <v>0.1</v>
       </c>
       <c r="C25" s="6"/>
-      <c r="D25" s="6">
+      <c r="D25" s="15">
         <v>0.1</v>
       </c>
     </row>
@@ -969,8 +978,8 @@
         <v>0.1</v>
       </c>
       <c r="C26" s="6"/>
-      <c r="D26" s="6">
-        <v>0.1</v>
+      <c r="D26" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -981,7 +990,7 @@
         <v>0.1</v>
       </c>
       <c r="C27" s="6"/>
-      <c r="D27" s="6">
+      <c r="D27" s="15">
         <v>0.1</v>
       </c>
     </row>
@@ -993,7 +1002,7 @@
         <v>0.1</v>
       </c>
       <c r="C28" s="6"/>
-      <c r="D28" s="6">
+      <c r="D28" s="15">
         <v>0.1</v>
       </c>
     </row>
@@ -1005,7 +1014,7 @@
         <v>0.1</v>
       </c>
       <c r="C29" s="6"/>
-      <c r="D29" s="6">
+      <c r="D29" s="15">
         <v>0.1</v>
       </c>
     </row>
@@ -1017,7 +1026,7 @@
         <v>0.1</v>
       </c>
       <c r="C30" s="6"/>
-      <c r="D30" s="6">
+      <c r="D30" s="15">
         <v>0.1</v>
       </c>
     </row>
@@ -1029,7 +1038,7 @@
         <v>0.1</v>
       </c>
       <c r="C31" s="6"/>
-      <c r="D31" s="6">
+      <c r="D31" s="15">
         <v>0.1</v>
       </c>
     </row>
@@ -1041,7 +1050,7 @@
         <v>0.1</v>
       </c>
       <c r="C32" s="6"/>
-      <c r="D32" s="6">
+      <c r="D32" s="15">
         <v>0.1</v>
       </c>
     </row>
@@ -1053,7 +1062,7 @@
         <v>0.1</v>
       </c>
       <c r="C33" s="6"/>
-      <c r="D33" s="6">
+      <c r="D33" s="15">
         <v>0.1</v>
       </c>
     </row>
@@ -1073,8 +1082,8 @@
         <v>0.1</v>
       </c>
       <c r="C35" s="6"/>
-      <c r="D35" s="6">
-        <v>0.1</v>
+      <c r="D35" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -1085,8 +1094,8 @@
         <v>0.1</v>
       </c>
       <c r="C36" s="6"/>
-      <c r="D36" s="6">
-        <v>0.1</v>
+      <c r="D36" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -1097,7 +1106,7 @@
         <v>0.1</v>
       </c>
       <c r="C37" s="6"/>
-      <c r="D37" s="6">
+      <c r="D37" s="15">
         <v>0.1</v>
       </c>
     </row>
@@ -1109,7 +1118,7 @@
         <v>0.1</v>
       </c>
       <c r="C38" s="6"/>
-      <c r="D38" s="6">
+      <c r="D38" s="15">
         <v>0.1</v>
       </c>
     </row>
@@ -1132,8 +1141,8 @@
         <v>0.1</v>
       </c>
       <c r="C40" s="6"/>
-      <c r="D40" s="6">
-        <v>0.1</v>
+      <c r="D40" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -1144,7 +1153,7 @@
         <v>0.1</v>
       </c>
       <c r="C41" s="6"/>
-      <c r="D41" s="6">
+      <c r="D41" s="15">
         <v>0.1</v>
       </c>
     </row>
@@ -1156,7 +1165,7 @@
         <v>0.1</v>
       </c>
       <c r="C42" s="6"/>
-      <c r="D42" s="6">
+      <c r="D42" s="15">
         <v>0.1</v>
       </c>
     </row>
@@ -1168,7 +1177,7 @@
         <v>0.1</v>
       </c>
       <c r="C43" s="6"/>
-      <c r="D43" s="6">
+      <c r="D43" s="15">
         <v>0.1</v>
       </c>
     </row>
@@ -1180,7 +1189,7 @@
         <v>0.1</v>
       </c>
       <c r="C44" s="6"/>
-      <c r="D44" s="6">
+      <c r="D44" s="15">
         <v>0.1</v>
       </c>
     </row>
@@ -1203,7 +1212,7 @@
         <v>0.1</v>
       </c>
       <c r="C46" s="6"/>
-      <c r="D46" s="6">
+      <c r="D46" s="15">
         <v>0.1</v>
       </c>
     </row>
@@ -1215,7 +1224,7 @@
         <v>0.1</v>
       </c>
       <c r="C47" s="6"/>
-      <c r="D47" s="6">
+      <c r="D47" s="15">
         <v>0.1</v>
       </c>
     </row>
@@ -1227,8 +1236,8 @@
         <v>0.1</v>
       </c>
       <c r="C48" s="6"/>
-      <c r="D48" s="6">
-        <v>0.1</v>
+      <c r="D48" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -1239,7 +1248,7 @@
         <v>0.1</v>
       </c>
       <c r="C49" s="6"/>
-      <c r="D49" s="6">
+      <c r="D49" s="15">
         <v>0.1</v>
       </c>
     </row>
@@ -1251,7 +1260,7 @@
         <v>0.1</v>
       </c>
       <c r="C50" s="6"/>
-      <c r="D50" s="6">
+      <c r="D50" s="15">
         <v>0.1</v>
       </c>
     </row>
@@ -1263,7 +1272,7 @@
         <v>0.1</v>
       </c>
       <c r="C51" s="6"/>
-      <c r="D51" s="6">
+      <c r="D51" s="15">
         <v>0.1</v>
       </c>
     </row>
@@ -1275,8 +1284,8 @@
         <v>0.1</v>
       </c>
       <c r="C52" s="6"/>
-      <c r="D52" s="6">
-        <v>0.1</v>
+      <c r="D52" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -1287,7 +1296,7 @@
         <v>0.1</v>
       </c>
       <c r="C53" s="6"/>
-      <c r="D53" s="6">
+      <c r="D53" s="15">
         <v>0.1</v>
       </c>
     </row>
@@ -1299,8 +1308,8 @@
         <v>0.1</v>
       </c>
       <c r="C54" s="6"/>
-      <c r="D54" s="6">
-        <v>0.1</v>
+      <c r="D54" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -1311,8 +1320,8 @@
         <v>0.1</v>
       </c>
       <c r="C55" s="6"/>
-      <c r="D55" s="6">
-        <v>0.1</v>
+      <c r="D55" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -1326,7 +1335,7 @@
       </c>
       <c r="D56" s="14">
         <f t="shared" ref="D56" si="0">SUM(D3:D55)</f>
-        <v>4.9999999999999982</v>
+        <v>3.2000000000000015</v>
       </c>
     </row>
   </sheetData>
